--- a/设计规范.xlsx
+++ b/设计规范.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -216,10 +216,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ApprovalDetailList</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>newName</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -293,13 +289,17 @@
   </si>
   <si>
     <t>applicationDate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ApprovalDetais</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -397,10 +397,10 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -684,24 +684,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="18.83203125" customWidth="1"/>
-    <col min="4" max="4" width="12.83203125" customWidth="1"/>
-    <col min="5" max="5" width="17.08203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="18.875" customWidth="1"/>
+    <col min="4" max="4" width="12.875" customWidth="1"/>
+    <col min="5" max="5" width="17.125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.75" customWidth="1"/>
     <col min="7" max="7" width="15" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.08203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="40.58203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.9140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="40.625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -713,7 +713,7 @@
       <c r="G1" s="6"/>
       <c r="H1" s="6"/>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" s="6"/>
       <c r="B2" s="6"/>
       <c r="C2" s="6"/>
@@ -723,7 +723,7 @@
       <c r="G2" s="6"/>
       <c r="H2" s="6"/>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" s="6"/>
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
@@ -733,7 +733,7 @@
       <c r="G3" s="6"/>
       <c r="H3" s="6"/>
     </row>
-    <row r="4" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>15</v>
       </c>
@@ -741,7 +741,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J4" s="6" t="s">
         <v>21</v>
@@ -754,7 +754,7 @@
       <c r="P4" s="6"/>
       <c r="Q4" s="6"/>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
         <v>12</v>
       </c>
@@ -770,14 +770,14 @@
       <c r="P5" s="6"/>
       <c r="Q5" s="6"/>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" s="7"/>
       <c r="B6" t="s">
         <v>3</v>
       </c>
       <c r="J6" s="1"/>
       <c r="K6" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
@@ -786,10 +786,10 @@
       <c r="P6" s="1"/>
       <c r="Q6" s="1"/>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7" s="7"/>
       <c r="B7" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J7" s="1"/>
       <c r="K7" s="1" t="s">
@@ -802,7 +802,7 @@
       <c r="P7" s="1"/>
       <c r="Q7" s="1"/>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" s="7"/>
       <c r="B8" t="s">
         <v>37</v>
@@ -812,19 +812,19 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9" s="7"/>
       <c r="B9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K9" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10" s="7"/>
       <c r="B10" t="s">
         <v>46</v>
@@ -836,32 +836,32 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11" s="7"/>
       <c r="B11" t="s">
         <v>4</v>
       </c>
       <c r="J11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K11" t="s">
         <v>19</v>
       </c>
       <c r="L11" s="3"/>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A12" s="7"/>
       <c r="B12" s="3" t="s">
         <v>25</v>
       </c>
       <c r="J12" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K12" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A13" s="7"/>
       <c r="B13" s="3" t="s">
         <v>27</v>
@@ -870,53 +870,53 @@
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="K14" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="K15" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B16" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
         <v>7</v>
       </c>
       <c r="J19"/>
       <c r="K19" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="L19" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="L19" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="M19" s="9"/>
+      <c r="N19" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="M19" s="8"/>
-      <c r="N19" s="1" t="s">
+      <c r="O19" t="s">
         <v>58</v>
-      </c>
-      <c r="O19" t="s">
-        <v>59</v>
       </c>
       <c r="P19"/>
       <c r="Q19"/>
     </row>
-    <row r="20" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
         <v>8</v>
       </c>
@@ -926,49 +926,49 @@
       <c r="K20" t="s">
         <v>30</v>
       </c>
-      <c r="L20" s="8"/>
-      <c r="M20" s="8"/>
+      <c r="L20" s="9"/>
+      <c r="M20" s="9"/>
       <c r="N20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="O20"/>
       <c r="P20"/>
       <c r="Q20"/>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
       <c r="J21" t="s">
         <v>34</v>
       </c>
       <c r="K21" t="s">
         <v>32</v>
       </c>
-      <c r="L21" s="8"/>
-      <c r="M21" s="8"/>
+      <c r="L21" s="9"/>
+      <c r="M21" s="9"/>
       <c r="N21" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K22" t="s">
         <v>43</v>
       </c>
       <c r="N22" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>13</v>
       </c>
@@ -976,52 +976,52 @@
         <v>11</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B26" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B27" s="3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B30" s="2" t="s">
         <v>64</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>65</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" s="4" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>46</v>
       </c>
@@ -1032,26 +1032,26 @@
         <v>48</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>49</v>
       </c>
       <c r="D37" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B38" t="s">
         <v>50</v>
       </c>
       <c r="D38" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B39" t="s">
         <v>39</v>
       </c>
@@ -1059,7 +1059,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B40" t="s">
         <v>30</v>
       </c>
@@ -1067,10 +1067,10 @@
         <v>41</v>
       </c>
       <c r="D40" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B41" t="s">
         <v>33</v>
       </c>
@@ -1078,7 +1078,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B42" t="s">
         <v>43</v>
       </c>
